--- a/PM25_Coding/Data_cleaning/PM2.5/PM2.5_2018_.xlsx
+++ b/PM25_Coding/Data_cleaning/PM2.5/PM2.5_2018_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\DataMining_PM2_5\PM25_Coding\Data_cleaning\PM2.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57745D91-AB7C-46CC-B61F-E8B486651FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED9F4B-F00B-4563-A2CB-58D293293969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3540" windowWidth="21600" windowHeight="11700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PM2.5" sheetId="1" r:id="rId1"/>
@@ -412,12 +412,6 @@
     <t xml:space="preserve"> ต.ประตูชัย อ.พระนครศรีอยุธยา จ.พระนครศรีอยุธยา</t>
   </si>
   <si>
-    <t xml:space="preserve"> ต.หน้าพระลาน อ.เฉลิมพระเกียรติ จ.สระบุรี </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ต.ปากเพรียว อ.เมือง จ.สระบุรี </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ต.หน้าเมือง อ.เมือง จ.ราชบุรี</t>
   </si>
   <si>
@@ -484,16 +478,7 @@
     <t>ต.ในเวียง อ.เมือง จ.น่าน</t>
   </si>
   <si>
-    <t xml:space="preserve"> ต.นาจักร อ.เมือง จ. แพร่</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ต.สะเตง อ.เมือง จ.ยะลา</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ต.เวียง อ.เมือง จ. พะเยา</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ต.อรัญประเทศ อ.อรัญประเทศ จ.สระแก้ว </t>
   </si>
   <si>
     <t xml:space="preserve"> ต.นาอาน อ.เมือง จ.เลย</t>
@@ -518,6 +503,21 @@
   </si>
   <si>
     <t>รหัสสถานี</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ต.อรัญประเทศ อ.อรัญประเทศ จ.สระแก้ว</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ต.ปากเพรียว อ.เมือง จ.สระบุรี</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ต.หน้าพระลาน อ.เฉลิมพระเกียรติ จ.สระบุรี</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ต.นาจักร อ.เมือง จ.แพร่</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ต.เวียง อ.เมือง จ.พะเยา</t>
   </si>
 </sst>
 </file>
@@ -61223,10 +61223,10 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -61239,7 +61239,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>54</v>
@@ -61440,7 +61440,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>71</v>
@@ -61451,7 +61451,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>72</v>
@@ -61462,7 +61462,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>73</v>
@@ -61473,7 +61473,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>75</v>
@@ -61484,7 +61484,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>81</v>
@@ -61495,7 +61495,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>82</v>
@@ -61506,7 +61506,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>83</v>
@@ -61517,7 +61517,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>85</v>
@@ -61528,7 +61528,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>86</v>
@@ -61539,7 +61539,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>84</v>
@@ -61550,7 +61550,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>89</v>
@@ -61561,7 +61561,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>90</v>
@@ -61572,7 +61572,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>94</v>
@@ -61583,7 +61583,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>91</v>
@@ -61594,7 +61594,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>92</v>
@@ -61605,7 +61605,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>93</v>
@@ -61616,7 +61616,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>77</v>
@@ -61627,7 +61627,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>104</v>
@@ -61638,7 +61638,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>105</v>
@@ -61649,7 +61649,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>79</v>
@@ -61660,7 +61660,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>106</v>
@@ -61671,7 +61671,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>107</v>
@@ -61682,7 +61682,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>96</v>
@@ -61693,7 +61693,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>95</v>
@@ -61704,7 +61704,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>101</v>
@@ -61726,7 +61726,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>99</v>
@@ -61737,7 +61737,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>98</v>
@@ -61748,7 +61748,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>87</v>
@@ -61759,7 +61759,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>80</v>
@@ -61770,7 +61770,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>97</v>
@@ -61781,7 +61781,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>102</v>
@@ -61792,7 +61792,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>103</v>
@@ -61803,7 +61803,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>88</v>
@@ -61814,7 +61814,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>78</v>
@@ -61825,7 +61825,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>108</v>
